--- a/service/currentforecastonname.xlsx
+++ b/service/currentforecastonname.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>200.2</v>
+        <v>318.5</v>
       </c>
       <c r="C2" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>147</v>
+        <v>206</v>
       </c>
       <c r="C3" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="C5" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C6" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="C7" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>270</v>
+        <v>379</v>
       </c>
       <c r="C10" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>175</v>
+        <v>208</v>
       </c>
       <c r="C11" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12">
@@ -587,10 +587,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>258.7</v>
+        <v>395.2</v>
       </c>
       <c r="C12" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13">
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>220</v>
+        <v>302</v>
       </c>
       <c r="C13" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14">
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>353</v>
+        <v>495</v>
       </c>
       <c r="C14" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="C15" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16">
@@ -652,10 +652,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="C17" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18">
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19">
@@ -678,10 +678,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C19" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20">
@@ -691,10 +691,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C20" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/service/currentforecastonname.xlsx
+++ b/service/currentforecastonname.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>200.2</v>
+        <v>496.6</v>
       </c>
       <c r="C2" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>147</v>
+        <v>260</v>
       </c>
       <c r="C3" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="C5" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C6" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="C7" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>270</v>
+        <v>486</v>
       </c>
       <c r="C10" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>175</v>
+        <v>243</v>
       </c>
       <c r="C11" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">
@@ -587,10 +587,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>258.7</v>
+        <v>514.8</v>
       </c>
       <c r="C12" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>220</v>
+        <v>386</v>
       </c>
       <c r="C13" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>353</v>
+        <v>607</v>
       </c>
       <c r="C14" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="C15" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16">
@@ -652,10 +652,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="C17" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18">
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19">
@@ -678,10 +678,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C19" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20">
@@ -691,10 +691,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="C20" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/service/currentforecastonname.xlsx
+++ b/service/currentforecastonname.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>496.6</v>
+        <v>1103.7</v>
       </c>
       <c r="C2" t="n">
-        <v>50</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>260</v>
+        <v>541</v>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>131</v>
+        <v>219</v>
       </c>
       <c r="C5" t="n">
-        <v>50</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="C6" t="n">
-        <v>50</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>106</v>
+        <v>196</v>
       </c>
       <c r="C7" t="n">
-        <v>50</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>486</v>
+        <v>915</v>
       </c>
       <c r="C10" t="n">
-        <v>50</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>243</v>
+        <v>372</v>
       </c>
       <c r="C11" t="n">
-        <v>50</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12">
@@ -587,10 +587,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>514.8</v>
+        <v>1019.2</v>
       </c>
       <c r="C12" t="n">
-        <v>50</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>386</v>
+        <v>766</v>
       </c>
       <c r="C13" t="n">
-        <v>50</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14">
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>607</v>
+        <v>1157</v>
       </c>
       <c r="C14" t="n">
-        <v>50</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>153</v>
+        <v>309</v>
       </c>
       <c r="C15" t="n">
-        <v>50</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16">
@@ -652,10 +652,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>98</v>
+        <v>191</v>
       </c>
       <c r="C17" t="n">
-        <v>50</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18">
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>50</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19">
@@ -678,10 +678,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C19" t="n">
-        <v>50</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20">
@@ -691,10 +691,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="C20" t="n">
-        <v>50</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/service/currentforecastonname.xlsx
+++ b/service/currentforecastonname.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>11/03/2023</t>
+          <t>14/03/2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>768.3</v>
+        <v>525.2</v>
       </c>
       <c r="C2" t="n">
-        <v>143</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>462</v>
+        <v>236</v>
       </c>
       <c r="C3" t="n">
-        <v>143</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>143</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>257</v>
+        <v>96</v>
       </c>
       <c r="C5" t="n">
-        <v>143</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C6" t="n">
-        <v>143</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="C7" t="n">
-        <v>143</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C8" t="n">
         <v>8</v>
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="C9" t="n">
         <v>18</v>
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>537</v>
+        <v>440</v>
       </c>
       <c r="C10" t="n">
-        <v>143</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>239</v>
+        <v>148</v>
       </c>
       <c r="C11" t="n">
-        <v>143</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12">
@@ -587,10 +587,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>676</v>
+        <v>483.6</v>
       </c>
       <c r="C12" t="n">
-        <v>143</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13">
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>722</v>
+        <v>355</v>
       </c>
       <c r="C13" t="n">
-        <v>143</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14">
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>825</v>
+        <v>530</v>
       </c>
       <c r="C14" t="n">
-        <v>143</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>256</v>
+        <v>159</v>
       </c>
       <c r="C15" t="n">
-        <v>143</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16">
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="C16" t="n">
         <v>28</v>
@@ -652,10 +652,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="C17" t="n">
-        <v>143</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18">
@@ -668,7 +668,7 @@
         <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>143</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19">
@@ -678,10 +678,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C19" t="n">
-        <v>143</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20">
@@ -691,10 +691,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C20" t="n">
-        <v>143</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/service/currentforecastonname.xlsx
+++ b/service/currentforecastonname.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>525.2</v>
+        <v>1281.8</v>
       </c>
       <c r="C2" t="n">
-        <v>38</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>236</v>
+        <v>523</v>
       </c>
       <c r="C3" t="n">
-        <v>38</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C4" t="n">
-        <v>38</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>96</v>
+        <v>191</v>
       </c>
       <c r="C5" t="n">
-        <v>38</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="C6" t="n">
-        <v>38</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>82</v>
+        <v>193</v>
       </c>
       <c r="C7" t="n">
-        <v>38</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>440</v>
+        <v>957</v>
       </c>
       <c r="C10" t="n">
-        <v>38</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>148</v>
+        <v>321</v>
       </c>
       <c r="C11" t="n">
-        <v>38</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12">
@@ -587,10 +587,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>483.6</v>
+        <v>1137.5</v>
       </c>
       <c r="C12" t="n">
-        <v>38</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13">
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>355</v>
+        <v>816</v>
       </c>
       <c r="C13" t="n">
-        <v>38</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14">
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>530</v>
+        <v>1148</v>
       </c>
       <c r="C14" t="n">
-        <v>38</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>159</v>
+        <v>371</v>
       </c>
       <c r="C15" t="n">
-        <v>38</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16">
@@ -652,10 +652,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>86</v>
+        <v>202</v>
       </c>
       <c r="C17" t="n">
-        <v>38</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18">
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>38</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19">
@@ -678,10 +678,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>38</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20">
@@ -691,10 +691,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="C20" t="n">
-        <v>38</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/service/currentforecastonname.xlsx
+++ b/service/currentforecastonname.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>14/03/2023</t>
+          <t>18/03/2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1281.8</v>
+        <v>338</v>
       </c>
       <c r="C2" t="n">
-        <v>108</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>523</v>
+        <v>185</v>
       </c>
       <c r="C3" t="n">
-        <v>108</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>108</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>191</v>
+        <v>116</v>
       </c>
       <c r="C5" t="n">
-        <v>108</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="C6" t="n">
-        <v>108</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>193</v>
+        <v>40</v>
       </c>
       <c r="C7" t="n">
-        <v>108</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C8" t="n">
         <v>8</v>
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="C9" t="n">
         <v>18</v>
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>957</v>
+        <v>198</v>
       </c>
       <c r="C10" t="n">
-        <v>108</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>321</v>
+        <v>127</v>
       </c>
       <c r="C11" t="n">
-        <v>108</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12">
@@ -587,10 +587,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1137.5</v>
+        <v>256.1</v>
       </c>
       <c r="C12" t="n">
-        <v>108</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13">
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>816</v>
+        <v>263</v>
       </c>
       <c r="C13" t="n">
-        <v>108</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14">
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1148</v>
+        <v>344</v>
       </c>
       <c r="C14" t="n">
-        <v>108</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>371</v>
+        <v>102</v>
       </c>
       <c r="C15" t="n">
-        <v>108</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16">
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="C16" t="n">
         <v>28</v>
@@ -652,10 +652,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>202</v>
+        <v>57</v>
       </c>
       <c r="C17" t="n">
-        <v>108</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18">
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>108</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19">
@@ -678,10 +678,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C19" t="n">
-        <v>108</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20">
@@ -691,10 +691,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>139</v>
+        <v>22</v>
       </c>
       <c r="C20" t="n">
-        <v>108</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/service/currentforecastonname.xlsx
+++ b/service/currentforecastonname.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>338</v>
+        <v>461.5</v>
       </c>
       <c r="C2" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>185</v>
+        <v>251</v>
       </c>
       <c r="C3" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="C5" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C6" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C7" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>198</v>
+        <v>264</v>
       </c>
       <c r="C10" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="C11" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">
@@ -587,10 +587,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>256.1</v>
+        <v>367.9</v>
       </c>
       <c r="C12" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>263</v>
+        <v>344</v>
       </c>
       <c r="C13" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>344</v>
+        <v>430</v>
       </c>
       <c r="C14" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="C15" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16">
@@ -652,10 +652,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18">
@@ -668,7 +668,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19">
@@ -678,10 +678,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20">
@@ -691,10 +691,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C20" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
